--- a/locations/Logic.xlsx
+++ b/locations/Logic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backup-apo\Launchmycraft\git_repository\iogr_emotracker_apokalysme\iogr_emotracker_apokalysme\locations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52014188-4C2D-4EF8-9039-033C8EABAB30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A70B378-044F-4452-9B1E-C8F7119BAC30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="367">
   <si>
     <t>Herb</t>
   </si>
@@ -1035,7 +1035,97 @@
     <t>Spin dash space</t>
   </si>
   <si>
-    <t>Friar space</t>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>North Center</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>Jeweler Mansion</t>
+  </si>
+  <si>
+    <t>Walled Miner</t>
+  </si>
+  <si>
+    <t>Pre Friar</t>
+  </si>
+  <si>
+    <t>Friar</t>
+  </si>
+  <si>
+    <t>Wind Tunnel</t>
+  </si>
+  <si>
+    <t>Shy Guard</t>
+  </si>
+  <si>
+    <t>Elder</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Turbo's master</t>
+  </si>
+  <si>
+    <t>Coffin</t>
+  </si>
+  <si>
+    <t>Ishtart's Apprentice</t>
+  </si>
+  <si>
+    <t>Kara's Journal</t>
+  </si>
+  <si>
+    <t>Erasquez</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Girl with Jackal's Note</t>
+  </si>
+  <si>
+    <t>First spirit</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1185,144 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1123,8 +1350,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{07886247-7F93-409E-B401-DFE1C345A0DC}" name="ItemName"/>
-    <tableColumn id="2" xr3:uid="{E0978473-634B-4ED2-BB46-1B80FED27BB2}" name="MaxQuantity" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B19AF60E-74D0-4EF5-B007-2C5EE97005FF}" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E0978473-634B-4ED2-BB46-1B80FED27BB2}" name="MaxQuantity" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B19AF60E-74D0-4EF5-B007-2C5EE97005FF}" name="ID" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1182,6 +1409,18 @@
     <tableColumn id="4" xr3:uid="{2D71A4A5-6512-4BC2-A025-AF67A2FE4C90}" name="Conditions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E5DB3CE8-BEB5-4B1B-8AA4-BB63BA8F49DD}" name="Tableau5" displayName="Tableau5" ref="Z4:AB12" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="Z4:AB12" xr:uid="{B2E909B9-E24D-4FF2-B708-EF0565CDF9FA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{08CCFAED-3331-40DA-9DDB-D204E000596D}" name="Region" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EE560AD4-A51C-49F7-9DEB-E654EBF58B66}" name="ID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{779D015B-DBB7-4220-A8C7-D643D5297B3E}" name="Conditions" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1448,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:X114"/>
+  <dimension ref="B2:AB114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,13 +1714,17 @@
     <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.5703125" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1497,8 +1740,11 @@
       <c r="U2" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1556,8 +1802,17 @@
       <c r="X4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
@@ -1603,11 +1858,20 @@
       <c r="U5" t="s">
         <v>57</v>
       </c>
+      <c r="V5" t="s">
+        <v>356</v>
+      </c>
       <c r="W5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -1653,11 +1917,20 @@
       <c r="U6" t="s">
         <v>60</v>
       </c>
+      <c r="V6" t="s">
+        <v>357</v>
+      </c>
       <c r="W6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -1703,11 +1976,20 @@
       <c r="U7" t="s">
         <v>275</v>
       </c>
+      <c r="V7" t="s">
+        <v>358</v>
+      </c>
       <c r="W7" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -1753,11 +2035,20 @@
       <c r="U8" t="s">
         <v>276</v>
       </c>
+      <c r="V8" t="s">
+        <v>359</v>
+      </c>
       <c r="W8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z8" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1803,11 +2094,20 @@
       <c r="U9" t="s">
         <v>277</v>
       </c>
+      <c r="V9" t="s">
+        <v>360</v>
+      </c>
       <c r="W9" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -1853,11 +2153,20 @@
       <c r="U10" t="s">
         <v>278</v>
       </c>
+      <c r="V10" t="s">
+        <v>361</v>
+      </c>
       <c r="W10" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1903,11 +2212,20 @@
       <c r="U11" t="s">
         <v>155</v>
       </c>
+      <c r="V11" t="s">
+        <v>362</v>
+      </c>
       <c r="W11" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z11" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1953,11 +2271,20 @@
       <c r="U12" t="s">
         <v>157</v>
       </c>
+      <c r="V12" t="s">
+        <v>363</v>
+      </c>
       <c r="W12" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1967,6 +2294,9 @@
       <c r="D13" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J13" t="s">
+        <v>352</v>
+      </c>
       <c r="K13" t="s">
         <v>151</v>
       </c>
@@ -1991,11 +2321,14 @@
       <c r="U13" t="s">
         <v>160</v>
       </c>
+      <c r="V13" t="s">
+        <v>364</v>
+      </c>
       <c r="W13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -2005,6 +2338,9 @@
       <c r="D14" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="J14" t="s">
+        <v>353</v>
+      </c>
       <c r="K14" t="s">
         <v>151</v>
       </c>
@@ -2029,11 +2365,14 @@
       <c r="U14" t="s">
         <v>161</v>
       </c>
+      <c r="V14" t="s">
+        <v>365</v>
+      </c>
       <c r="W14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2383,7 @@
         <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="K15" t="s">
         <v>151</v>
@@ -2070,11 +2409,14 @@
       <c r="U15" t="s">
         <v>163</v>
       </c>
+      <c r="V15" t="s">
+        <v>366</v>
+      </c>
       <c r="W15" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3342,7 @@
     </row>
     <row r="58" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P58" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="R58" t="s">
         <v>218</v>
@@ -3008,7 +3350,7 @@
     </row>
     <row r="59" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P59" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="R59" t="s">
         <v>219</v>
@@ -3016,7 +3358,7 @@
     </row>
     <row r="60" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P60" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="R60" t="s">
         <v>220</v>
@@ -3024,7 +3366,7 @@
     </row>
     <row r="61" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P61" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="R61" t="s">
         <v>221</v>
@@ -3032,7 +3374,7 @@
     </row>
     <row r="62" spans="16:19" x14ac:dyDescent="0.25">
       <c r="P62" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="R62" t="s">
         <v>222</v>
@@ -3479,12 +3821,13 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>